--- a/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/wdg-cpub-test/master/handback-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>File Name</t>
   </si>
@@ -308,6 +308,15 @@
     <t>2016-03-04 17:10:27</t>
   </si>
   <si>
+    <t>acquisitions-report.md</t>
+  </si>
+  <si>
+    <t>wdg-cpub-test\ndolci2\publish\acquisitions-report.md</t>
+  </si>
+  <si>
+    <t>2016-10-27 12:33:15</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -419,7 +428,7 @@
     <t>3db200b5df5b492cd6cfcc04c59db9a3bffc1db1.png</t>
   </si>
   <si>
-    <t>wdg-cpub-test\lizross\emie_to_improve_compatibility.md,wdg-cpub-test\HoverTest\browsers\edge\emie-to-improve-compatibility.md</t>
+    <t>wdg-cpub-test\lizross\emie_to_improve_compatibility.md,wdg-cpub-test\HoverTest\browsers\edge\emie-to-improve-compatibility.md,wdg-cpub-test\HoverTest1\browsers\edge\emie-to-improve-compatibility.md</t>
   </si>
   <si>
     <t>c4ad8cd0e62f8f177e1b945b19b0ae2667a08e51.png</t>
@@ -576,6 +585,15 @@
   </si>
   <si>
     <t>2016-03-04 17:37:40</t>
+  </si>
+  <si>
+    <t>wdg-cpub-test\ndolci2\publish</t>
+  </si>
+  <si>
+    <t>acquisitions-report.36511153b832c45e8a44d7b8333cbcf532ffae5c.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-11-07 22:34:12</t>
   </si>
 </sst>
 </file>
@@ -681,8 +699,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="it-it" displayName="it_it" ref="A1:P2" headerRowCount="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="it-it" displayName="it_it" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -706,8 +724,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:G42" headerRowCount="1">
-  <autoFilter ref="A1:G42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:G43" headerRowCount="1">
+  <autoFilter ref="A1:G43"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -723,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1579,6 +1597,26 @@
       </c>
       <c r="G42" s="2" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1624,6 +1662,7 @@
     <hyperlink ref="B40" display="wdg-cpub-test\tedhudek\workflow.md" r:id="rId40"/>
     <hyperlink ref="B41" display="wdg-cpub-test\TOC.md" r:id="rId41"/>
     <hyperlink ref="B42" display="wdg-cpub-test\testhtml.md" r:id="rId42"/>
+    <hyperlink ref="B43" display="wdg-cpub-test\ndolci2\publish\acquisitions-report.md" r:id="rId43"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1660,52 +1699,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1744,52 +1783,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
@@ -1803,16 +1842,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1821,25 +1860,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
@@ -1853,16 +1892,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -1871,25 +1910,25 @@
         <v>13</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -1903,16 +1942,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -1921,25 +1960,25 @@
         <v>17</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -1953,16 +1992,16 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -1971,25 +2010,25 @@
         <v>19</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -2003,16 +2042,16 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -2021,25 +2060,25 @@
         <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>18</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -2053,16 +2092,16 @@
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -2071,25 +2110,25 @@
         <v>24</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -2103,16 +2142,16 @@
         <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -2121,25 +2160,25 @@
         <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>18</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -2153,16 +2192,16 @@
         <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -2171,25 +2210,25 @@
         <v>28</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -2203,16 +2242,16 @@
         <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -2221,25 +2260,25 @@
         <v>30</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -2253,16 +2292,16 @@
         <v>15</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -2271,25 +2310,25 @@
         <v>32</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2303,16 +2342,16 @@
         <v>15</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -2321,25 +2360,25 @@
         <v>34</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2353,16 +2392,16 @@
         <v>15</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -2371,25 +2410,25 @@
         <v>36</v>
       </c>
       <c r="J13" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="O13" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -2403,16 +2442,16 @@
         <v>15</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -2421,25 +2460,25 @@
         <v>38</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -2453,16 +2492,16 @@
         <v>15</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -2471,25 +2510,25 @@
         <v>40</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -2503,16 +2542,16 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -2521,25 +2560,25 @@
         <v>42</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>51</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -2553,16 +2592,16 @@
         <v>15</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -2571,25 +2610,25 @@
         <v>44</v>
       </c>
       <c r="J17" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="O17" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
@@ -2603,16 +2642,16 @@
         <v>15</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -2621,25 +2660,25 @@
         <v>46</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -2653,16 +2692,16 @@
         <v>15</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -2671,25 +2710,25 @@
         <v>48</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -2703,16 +2742,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -2721,25 +2760,25 @@
         <v>50</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
@@ -2753,16 +2792,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -2771,25 +2810,25 @@
         <v>52</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>47</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -2803,16 +2842,16 @@
         <v>15</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>16</v>
@@ -2821,25 +2860,25 @@
         <v>54</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -2853,16 +2892,16 @@
         <v>15</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>16</v>
@@ -2871,25 +2910,25 @@
         <v>56</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -2903,16 +2942,16 @@
         <v>15</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>
@@ -2921,25 +2960,25 @@
         <v>58</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -2953,16 +2992,16 @@
         <v>15</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>16</v>
@@ -2971,25 +3010,25 @@
         <v>60</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -3003,16 +3042,16 @@
         <v>15</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
@@ -3021,25 +3060,25 @@
         <v>62</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -3053,16 +3092,16 @@
         <v>15</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>16</v>
@@ -3071,25 +3110,25 @@
         <v>64</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -3103,16 +3142,16 @@
         <v>15</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>16</v>
@@ -3121,25 +3160,25 @@
         <v>66</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -3153,16 +3192,16 @@
         <v>15</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>16</v>
@@ -3171,25 +3210,25 @@
         <v>68</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -3203,16 +3242,16 @@
         <v>15</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>16</v>
@@ -3221,25 +3260,25 @@
         <v>70</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -3253,16 +3292,16 @@
         <v>15</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>16</v>
@@ -3271,25 +3310,25 @@
         <v>72</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -3303,16 +3342,16 @@
         <v>15</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>16</v>
@@ -3321,25 +3360,25 @@
         <v>74</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -3353,16 +3392,16 @@
         <v>15</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>16</v>
@@ -3371,25 +3410,25 @@
         <v>76</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -3403,16 +3442,16 @@
         <v>15</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
@@ -3421,25 +3460,25 @@
         <v>78</v>
       </c>
       <c r="J34" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="N34" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="O34" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -3453,16 +3492,16 @@
         <v>15</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>16</v>
@@ -3471,25 +3510,25 @@
         <v>80</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -3503,16 +3542,16 @@
         <v>15</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>16</v>
@@ -3521,25 +3560,25 @@
         <v>82</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -3553,16 +3592,16 @@
         <v>15</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>16</v>
@@ -3571,25 +3610,25 @@
         <v>84</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -3603,16 +3642,16 @@
         <v>15</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>16</v>
@@ -3621,25 +3660,25 @@
         <v>86</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -3653,16 +3692,16 @@
         <v>15</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
@@ -3671,25 +3710,25 @@
         <v>88</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -3703,16 +3742,16 @@
         <v>15</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>16</v>
@@ -3721,25 +3760,25 @@
         <v>90</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -3753,16 +3792,16 @@
         <v>15</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>16</v>
@@ -3771,25 +3810,25 @@
         <v>92</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3884,21 +3923,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
+    <col min="1" max="1" width="21.4299948556083" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
     <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
+    <col min="4" max="4" width="28.5423431396484" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="12.8569859095982" customWidth="1"/>
+    <col min="9" max="9" width="21.4299948556083" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="32.0967516217913" customWidth="1"/>
     <col min="12" max="12" width="19.298205784389" customWidth="1"/>
@@ -3910,52 +3949,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
@@ -3969,16 +4008,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>96</v>
@@ -3987,31 +4026,83 @@
         <v>94</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="testhtml.md" r:id="rId2"/>
     <hyperlink ref="I2" display="testhtml.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="acquisitions-report.md" r:id="rId4"/>
+    <hyperlink ref="I3" display="acquisitions-report.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
